--- a/tabular/Kuzmin-data.xlsx
+++ b/tabular/Kuzmin-data.xlsx
@@ -2219,8 +2219,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2286,7 +2288,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2313,6 +2315,7 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2339,6 +2342,7 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2670,48 +2674,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:G153"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -2722,28 +2726,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2001</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -2754,28 +2758,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2001</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -2786,28 +2790,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2001</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -2818,28 +2822,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2001</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -2850,28 +2854,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2001</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -2882,28 +2886,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2001</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -2914,28 +2918,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>2001</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -2946,28 +2950,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>2005</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
@@ -2978,28 +2982,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2009</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -3010,28 +3014,28 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>2005</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -3042,28 +3046,28 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>2005</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -3074,28 +3078,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>2009</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>7</v>
@@ -3106,28 +3110,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>2009</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
@@ -3137,29 +3141,29 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B15" s="1">
         <v>2403</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>2009</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>11</v>
@@ -3169,29 +3173,29 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B16" s="1">
         <v>2402</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>2009</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>11</v>
@@ -3201,29 +3205,29 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B17" s="1">
         <v>2401</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>2009</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
@@ -3233,29 +3237,29 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B18" s="1">
         <v>2400</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>2009</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>11</v>
@@ -3265,29 +3269,29 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B19" s="1">
         <v>2399</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>2009</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>11</v>
@@ -3297,29 +3301,29 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="1">
         <v>2398</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>2009</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>11</v>
@@ -3329,29 +3333,29 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B21" s="1">
         <v>2396</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>2009</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>11</v>
@@ -3361,29 +3365,29 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B22" s="1">
         <v>2395</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>2009</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>11</v>
@@ -3394,28 +3398,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>2001</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>11</v>
@@ -3425,29 +3429,29 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B24" s="1">
         <v>2526</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>2009</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>11</v>
@@ -3457,29 +3461,29 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B25" s="1">
         <v>1060</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>2009</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>11</v>
@@ -3490,28 +3494,28 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>2009</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>7</v>
@@ -3522,28 +3526,28 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>2005</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>7</v>
@@ -3554,28 +3558,28 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>2004</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>7</v>
@@ -3586,28 +3590,28 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>2004</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>7</v>
@@ -3618,28 +3622,28 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>2001</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>7</v>
@@ -3650,28 +3654,28 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>2001</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>7</v>
@@ -3682,28 +3686,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>2001</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>7</v>
@@ -3714,28 +3718,28 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>2001</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>7</v>
@@ -3746,28 +3750,28 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>2001</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>7</v>
@@ -3778,28 +3782,28 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>2001</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>11</v>
@@ -3810,28 +3814,28 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>2001</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>11</v>
@@ -3842,28 +3846,28 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>2001</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>7</v>
@@ -3874,28 +3878,28 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>2001</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>7</v>
@@ -3906,28 +3910,28 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>2001</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>48</v>
@@ -3938,28 +3942,28 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>2010</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>7</v>
@@ -3970,28 +3974,28 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>2010</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>7</v>
@@ -4002,28 +4006,28 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>2010</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>7</v>
@@ -4034,25 +4038,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>2009</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>7</v>
@@ -4063,25 +4067,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>2003</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>7</v>
@@ -4092,25 +4096,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>7</v>
@@ -4121,28 +4125,28 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>1984</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>7</v>
@@ -4153,25 +4157,25 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>2009</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>7</v>
@@ -4182,28 +4186,28 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>1974</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>7</v>
@@ -4214,28 +4218,28 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>1994</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>7</v>
@@ -4246,28 +4250,28 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>2009</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>7</v>
@@ -4278,28 +4282,28 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>2009</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>7</v>
@@ -4310,28 +4314,28 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>2009</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>7</v>
@@ -4342,28 +4346,28 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C53" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>2009</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>7</v>
@@ -4374,25 +4378,25 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>2007</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>7</v>
@@ -4406,22 +4410,22 @@
         <v>79</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>2008</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>7</v>
@@ -4435,22 +4439,22 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>1992</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>7</v>
@@ -4461,25 +4465,25 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>1983</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>7</v>
@@ -4493,22 +4497,22 @@
         <v>92</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>2006</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>7</v>
@@ -4522,22 +4526,22 @@
         <v>93</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>2008</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>7</v>
@@ -4548,25 +4552,25 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>1991</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>7</v>
@@ -4580,22 +4584,22 @@
         <v>100</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>2008</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>7</v>
@@ -4609,22 +4613,22 @@
         <v>101</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>1994</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>7</v>
@@ -4638,22 +4642,22 @@
         <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>1986</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>7</v>
@@ -4667,25 +4671,25 @@
         <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>1999</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>7</v>
@@ -4699,22 +4703,22 @@
         <v>107</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>2006</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>7</v>
@@ -4725,25 +4729,25 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>1987</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>48</v>
@@ -4754,25 +4758,25 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>1987</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>430</v>
@@ -4783,28 +4787,28 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>1986</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>48</v>
@@ -4815,28 +4819,28 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>1986</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>430</v>
@@ -4847,28 +4851,28 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>1977</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>48</v>
@@ -4879,28 +4883,28 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>1977</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>430</v>
@@ -4911,28 +4915,28 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>1987</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>48</v>
@@ -4946,22 +4950,22 @@
         <v>122</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>1991</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>48</v>
@@ -4975,22 +4979,22 @@
         <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>1986</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>48</v>
@@ -5004,22 +5008,22 @@
         <v>128</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>1987</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>48</v>
@@ -5033,22 +5037,22 @@
         <v>131</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>1990</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>48</v>
@@ -5062,22 +5066,22 @@
         <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>1987</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>48</v>
@@ -5091,22 +5095,22 @@
         <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>1976</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>48</v>
@@ -5117,25 +5121,25 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>1992</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>48</v>
@@ -5146,25 +5150,25 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>1983</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>48</v>
@@ -5175,25 +5179,25 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>1987</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H81" s="1" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>48</v>
@@ -5204,25 +5208,25 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>1986</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>48</v>
@@ -5233,25 +5237,25 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>1986</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>48</v>
@@ -5265,22 +5269,22 @@
         <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>1996</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>48</v>
@@ -5294,22 +5298,22 @@
         <v>159</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>1986</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>48</v>
@@ -5323,22 +5327,22 @@
         <v>161</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>2004</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>48</v>
@@ -5352,19 +5356,19 @@
         <v>164</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>48</v>
@@ -5375,28 +5379,28 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>2006</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>48</v>
@@ -5407,28 +5411,28 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>2006</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>430</v>
@@ -5442,22 +5446,22 @@
         <v>171</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>2008</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>7</v>
@@ -5471,22 +5475,22 @@
         <v>174</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>2006</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>7</v>
@@ -5500,19 +5504,19 @@
         <v>176</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>7</v>
@@ -5526,22 +5530,22 @@
         <v>181</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>2004</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>7</v>
@@ -5552,28 +5556,28 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C94" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>2003</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>7</v>
@@ -5584,28 +5588,28 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>2000</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>7</v>
@@ -5616,28 +5620,28 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>2002</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>7</v>
@@ -5648,28 +5652,28 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C97" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>2002</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>7</v>
@@ -5680,28 +5684,28 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C98" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="1">
         <v>2004</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>7</v>
@@ -5712,28 +5716,28 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C99" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="1">
         <v>2005</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>7</v>
@@ -5744,28 +5748,28 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="1">
         <v>2005</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>7</v>
@@ -5776,28 +5780,28 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C101" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="1">
         <v>2005</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>7</v>
@@ -5808,28 +5812,28 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C102" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>2001</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>7</v>
@@ -5840,28 +5844,28 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>2003</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>7</v>
@@ -5872,28 +5876,28 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="1">
         <v>2003</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>7</v>
@@ -5904,28 +5908,28 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C105" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="1">
+      <c r="F105" s="1">
         <v>1984</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>7</v>
@@ -5936,28 +5940,28 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="1">
         <v>2004</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>7</v>
@@ -5968,28 +5972,28 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E107" s="1">
+      <c r="F107" s="1">
         <v>2005</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>7</v>
@@ -6000,28 +6004,28 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C108" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>2009</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>7</v>
@@ -6032,28 +6036,28 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C109" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>2004</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>7</v>
@@ -6064,28 +6068,28 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C110" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="1">
         <v>2002</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>7</v>
@@ -6096,25 +6100,25 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E111" s="1">
+      <c r="F111" s="1">
         <v>2009</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>7</v>
@@ -6125,22 +6129,22 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>7</v>
@@ -6151,25 +6155,25 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="1">
         <v>1997</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>7</v>
@@ -6180,28 +6184,28 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="1">
+      <c r="F114" s="1">
         <v>1995</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>48</v>
@@ -6212,28 +6216,28 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E115" s="1">
+      <c r="F115" s="1">
         <v>1972</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>48</v>
@@ -6244,28 +6248,28 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E116" s="1">
+      <c r="F116" s="1">
         <v>2003</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>48</v>
@@ -6276,28 +6280,28 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C117" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="1">
         <v>2000</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>48</v>
@@ -6308,28 +6312,28 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C118" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="1">
+      <c r="F118" s="1">
         <v>2003</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>48</v>
@@ -6340,28 +6344,28 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>1992</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H119" s="1" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>48</v>
@@ -6372,28 +6376,28 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E120" s="1">
+      <c r="F120" s="1">
         <v>1994</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H120" s="1" t="s">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>48</v>
@@ -6404,28 +6408,28 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E121" s="1">
+      <c r="F121" s="1">
         <v>1992</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H121" s="1" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>48</v>
@@ -6436,28 +6440,28 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E122" s="1">
+      <c r="F122" s="1">
         <v>1992</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H122" s="1" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>48</v>
@@ -6468,25 +6472,25 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E123" s="1">
+      <c r="F123" s="1">
         <v>1988</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H123" s="1" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>48</v>
@@ -6497,28 +6501,28 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C124" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H124" s="1" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>48</v>
@@ -6529,28 +6533,28 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="1">
+      <c r="F125" s="1">
         <v>1988</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H125" s="1" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>48</v>
@@ -6560,29 +6564,29 @@
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="1">
         <v>804</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C126" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E126" s="1">
+      <c r="F126" s="1">
         <v>1987</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H126" s="1" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>48</v>
@@ -6593,28 +6597,28 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C127" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E127" s="1">
+      <c r="F127" s="1">
         <v>1998</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H127" s="1" t="s">
-        <v>268</v>
+        <v>65</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>48</v>
@@ -6625,28 +6629,28 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E128" s="1">
+      <c r="F128" s="1">
         <v>1997</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H128" s="1" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>48</v>
@@ -6657,28 +6661,28 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C129" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="1">
+      <c r="F129" s="1">
         <v>1998</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H129" s="1" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>48</v>
@@ -6688,29 +6692,29 @@
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="1">
         <v>136</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C130" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E130" s="1">
+      <c r="F130" s="1">
         <v>1984</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H130" s="1" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>48</v>
@@ -6721,28 +6725,28 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E131" s="1">
+      <c r="F131" s="1">
         <v>1972</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H131" s="1" t="s">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>48</v>
@@ -6752,29 +6756,29 @@
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132" s="1">
         <v>906</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="1">
+      <c r="F132" s="1">
         <v>1986</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H132" s="1" t="s">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>48</v>
@@ -6785,28 +6789,28 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="1">
+      <c r="F133" s="1">
         <v>1989</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H133" s="1" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>48</v>
@@ -6817,28 +6821,28 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E134" s="1">
+      <c r="F134" s="1">
         <v>1972</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H134" s="1" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>48</v>
@@ -6848,29 +6852,29 @@
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="1">
         <v>132</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C135" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E135" s="1">
+      <c r="F135" s="1">
         <v>1972</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H135" s="1" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>48</v>
@@ -6881,28 +6885,28 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E136" s="1">
+      <c r="F136" s="1">
         <v>1991</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H136" s="1" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>48</v>
@@ -6913,25 +6917,25 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E137" s="1">
+      <c r="F137" s="1">
         <v>2009</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>11</v>
@@ -6942,28 +6946,28 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C138" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E138" s="1">
+      <c r="F138" s="1">
         <v>2002</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>7</v>
@@ -6974,28 +6978,28 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C139" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E139" s="1">
+      <c r="F139" s="1">
         <v>2002</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>7</v>
@@ -7006,28 +7010,28 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C140" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E140" s="1">
+      <c r="F140" s="1">
         <v>1975</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>7</v>
@@ -7038,28 +7042,28 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C141" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E141" s="1">
+      <c r="F141" s="1">
         <v>1985</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>7</v>
@@ -7070,28 +7074,28 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C142" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E142" s="1">
+      <c r="F142" s="1">
         <v>1981</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>7</v>
@@ -7102,28 +7106,28 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C143" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E143" s="1">
+      <c r="F143" s="1">
         <v>1999</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>7</v>
@@ -7134,28 +7138,28 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E144" s="1">
+      <c r="F144" s="1">
         <v>1999</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>7</v>
@@ -7166,28 +7170,28 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C145" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E145" s="1">
+      <c r="F145" s="1">
         <v>1995</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>7</v>
@@ -7198,28 +7202,28 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C146" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E146" s="1">
+      <c r="F146" s="1">
         <v>1996</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>7</v>
@@ -7230,28 +7234,28 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C147" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E147" s="1">
+      <c r="F147" s="1">
         <v>2010</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>11</v>
@@ -7262,28 +7266,28 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C148" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E148" s="1">
+      <c r="F148" s="1">
         <v>2010</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>11</v>
@@ -7294,28 +7298,28 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C149" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="1">
+      <c r="F149" s="1">
         <v>2010</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>11</v>
@@ -7326,28 +7330,28 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C150" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E150" s="1">
+      <c r="F150" s="1">
         <v>2000</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>48</v>
@@ -7358,28 +7362,28 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C151" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="1">
+      <c r="F151" s="1">
         <v>2000</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>430</v>
@@ -7390,28 +7394,28 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C152" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E152" s="1">
+      <c r="F152" s="1">
         <v>2006</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>48</v>
@@ -7422,28 +7426,28 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C153" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E153" s="1">
+      <c r="F153" s="1">
         <v>2006</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>430</v>
@@ -7454,28 +7458,28 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C154" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E154" s="1">
+      <c r="F154" s="1">
         <v>2011</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>7</v>
@@ -7486,25 +7490,25 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E155" s="1">
+      <c r="F155" s="1">
         <v>2010</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>7</v>
@@ -7515,25 +7519,25 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="1">
+      <c r="F156" s="1">
         <v>2010</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>11</v>
@@ -7544,25 +7548,25 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E157" s="1">
+      <c r="F157" s="1">
         <v>1992</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H157" s="1" t="s">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>305</v>
@@ -7573,25 +7577,25 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E158" s="1">
+      <c r="F158" s="1">
         <v>1992</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H158" s="1" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>305</v>
@@ -7602,25 +7606,25 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E159" s="1">
+      <c r="F159" s="1">
         <v>1993</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H159" s="1" t="s">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>305</v>
@@ -7631,25 +7635,25 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E160" s="1">
+      <c r="F160" s="1">
         <v>1993</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H160" s="1" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>305</v>
@@ -7660,25 +7664,25 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E161" s="1">
+      <c r="F161" s="1">
         <v>1995</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H161" s="1" t="s">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>305</v>
@@ -7689,25 +7693,25 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E162" s="1">
+      <c r="F162" s="1">
         <v>1993</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H162" s="1" t="s">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>305</v>
@@ -7718,25 +7722,25 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E163" s="1">
+      <c r="F163" s="1">
         <v>1991</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H163" s="1" t="s">
-        <v>321</v>
+        <v>65</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>305</v>
@@ -7747,25 +7751,25 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E164" s="1">
+      <c r="F164" s="1">
         <v>1990</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H164" s="1" t="s">
-        <v>323</v>
+        <v>65</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>305</v>
@@ -7776,25 +7780,25 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E165" s="1">
+      <c r="F165" s="1">
         <v>1994</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H165" s="1" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>305</v>
@@ -7805,25 +7809,25 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E166" s="1">
+      <c r="F166" s="1">
         <v>1988</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>329</v>
+        <v>65</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>305</v>
@@ -7834,25 +7838,25 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E167" s="1">
+      <c r="F167" s="1">
         <v>1988</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H167" s="1" t="s">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>305</v>
@@ -7863,25 +7867,25 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E168" s="1">
+      <c r="F168" s="1">
         <v>1988</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H168" s="1" t="s">
-        <v>335</v>
+        <v>65</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>305</v>
@@ -7892,25 +7896,25 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E169" s="1">
+      <c r="F169" s="1">
         <v>1987</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H169" s="1" t="s">
-        <v>338</v>
+        <v>65</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>305</v>
@@ -7921,25 +7925,25 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E170" s="1">
+      <c r="F170" s="1">
         <v>1990</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H170" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>305</v>
@@ -7950,25 +7954,25 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E171" s="1">
+      <c r="F171" s="1">
         <v>1990</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H171" s="1" t="s">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>305</v>
@@ -7979,25 +7983,25 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E172" s="1">
+      <c r="F172" s="1">
         <v>1986</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H172" s="1" t="s">
-        <v>344</v>
+        <v>65</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>305</v>
@@ -8008,25 +8012,25 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E173" s="1">
+      <c r="F173" s="1">
         <v>1986</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H173" s="1" t="s">
-        <v>346</v>
+        <v>65</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>305</v>
@@ -8037,25 +8041,25 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E174" s="1">
+      <c r="F174" s="1">
         <v>1989</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H174" s="1" t="s">
-        <v>349</v>
+        <v>65</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>305</v>
@@ -8066,28 +8070,28 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C175" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="1">
+      <c r="F175" s="1">
         <v>1994</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H175" s="1" t="s">
-        <v>351</v>
+        <v>65</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>305</v>
@@ -8098,28 +8102,28 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C176" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E176" s="1">
+      <c r="F176" s="1">
         <v>1994</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="G176" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H176" s="1" t="s">
-        <v>354</v>
+        <v>65</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>305</v>
@@ -8130,28 +8134,28 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C177" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="1">
+      <c r="F177" s="1">
         <v>1994</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H177" s="1" t="s">
-        <v>356</v>
+        <v>65</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>305</v>
@@ -8162,28 +8166,28 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C178" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E178" s="1">
+      <c r="F178" s="1">
         <v>1994</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H178" s="1" t="s">
-        <v>358</v>
+        <v>65</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>305</v>
@@ -8194,25 +8198,25 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E179" s="1">
+      <c r="F179" s="1">
         <v>1994</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H179" s="1" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>305</v>
@@ -8223,25 +8227,25 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E180" s="1">
+      <c r="F180" s="1">
         <v>1995</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H180" s="1" t="s">
-        <v>362</v>
+        <v>65</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>305</v>
@@ -8252,25 +8256,25 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E181" s="1">
+      <c r="F181" s="1">
         <v>1992</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H181" s="1" t="s">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>305</v>
@@ -8281,25 +8285,25 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E182" s="1">
+      <c r="F182" s="1">
         <v>1996</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H182" s="1" t="s">
-        <v>368</v>
+        <v>65</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>305</v>
@@ -8310,25 +8314,25 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E183" s="1">
+      <c r="F183" s="1">
         <v>1996</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H183" s="1" t="s">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>305</v>
@@ -8339,25 +8343,25 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F184" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H184" s="1" t="s">
-        <v>373</v>
+        <v>65</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>305</v>
@@ -8368,25 +8372,25 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F185" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H185" s="1" t="s">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>305</v>
@@ -8397,25 +8401,25 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F186" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H186" s="1" t="s">
-        <v>377</v>
+        <v>65</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>305</v>
@@ -8426,25 +8430,25 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E187" s="1">
+      <c r="F187" s="1">
         <v>1991</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="G187" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H187" s="1" t="s">
-        <v>379</v>
+        <v>65</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>305</v>
@@ -8455,25 +8459,25 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E188" s="1">
+      <c r="F188" s="1">
         <v>1993</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G188" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H188" s="1" t="s">
-        <v>381</v>
+        <v>65</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>305</v>
@@ -8484,25 +8488,25 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E189" s="1">
+      <c r="F189" s="1">
         <v>1993</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H189" s="1" t="s">
-        <v>383</v>
+        <v>65</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>305</v>
@@ -8513,25 +8517,25 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E190" s="1">
+      <c r="F190" s="1">
         <v>1996</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H190" s="1" t="s">
-        <v>386</v>
+        <v>65</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>305</v>
@@ -8542,25 +8546,25 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E191" s="1">
+      <c r="F191" s="1">
         <v>1980</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H191" s="1" t="s">
-        <v>388</v>
+        <v>65</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>305</v>
@@ -8571,25 +8575,25 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E192" s="1">
+      <c r="F192" s="1">
         <v>1995</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H192" s="1" t="s">
-        <v>390</v>
+        <v>65</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>305</v>
@@ -8600,25 +8604,25 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E193" s="1">
+      <c r="F193" s="1">
         <v>1994</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H193" s="1" t="s">
-        <v>392</v>
+        <v>65</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>305</v>
@@ -8629,25 +8633,25 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="1">
+      <c r="F194" s="1">
         <v>1991</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H194" s="1" t="s">
-        <v>394</v>
+        <v>65</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>305</v>
@@ -8658,25 +8662,25 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E195" s="1">
+      <c r="F195" s="1">
         <v>1997</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H195" s="1" t="s">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>305</v>
@@ -8687,25 +8691,25 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E196" s="1">
+      <c r="F196" s="1">
         <v>1988</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H196" s="1" t="s">
-        <v>398</v>
+        <v>65</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>305</v>
@@ -8716,25 +8720,25 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E197" s="1">
+      <c r="F197" s="1">
         <v>1988</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H197" s="1" t="s">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>305</v>
@@ -8745,25 +8749,25 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E198" s="1">
+      <c r="F198" s="1">
         <v>1989</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H198" s="1" t="s">
-        <v>402</v>
+        <v>65</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>305</v>
@@ -8774,25 +8778,25 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E199" s="1">
+      <c r="F199" s="1">
         <v>1992</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H199" s="1" t="s">
-        <v>404</v>
+        <v>65</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>305</v>
@@ -8803,25 +8807,25 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E200" s="1">
+      <c r="F200" s="1">
         <v>1992</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H200" s="1" t="s">
-        <v>406</v>
+        <v>65</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>305</v>
@@ -8832,25 +8836,25 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E201" s="1">
+      <c r="F201" s="1">
         <v>1992</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H201" s="1" t="s">
-        <v>408</v>
+        <v>65</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>305</v>
@@ -8861,25 +8865,25 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E202" s="1">
+      <c r="F202" s="1">
         <v>1989</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H202" s="1" t="s">
-        <v>410</v>
+        <v>65</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>305</v>
@@ -8890,25 +8894,25 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E203" s="1">
+      <c r="F203" s="1">
         <v>1991</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H203" s="1" t="s">
-        <v>412</v>
+        <v>65</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>305</v>
@@ -8919,25 +8923,25 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E204" s="1">
+      <c r="F204" s="1">
         <v>1993</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H204" s="1" t="s">
-        <v>414</v>
+        <v>65</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>305</v>
@@ -8948,25 +8952,25 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E205" s="1">
+      <c r="F205" s="1">
         <v>1993</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="G205" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H205" s="1" t="s">
-        <v>416</v>
+        <v>65</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>305</v>
@@ -8977,28 +8981,28 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C206" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E206" s="1">
+      <c r="F206" s="1">
         <v>1994</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="G206" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H206" s="1" t="s">
-        <v>418</v>
+        <v>65</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>305</v>
@@ -9009,28 +9013,28 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C207" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E207" s="1">
+      <c r="F207" s="1">
         <v>1994</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H207" s="1" t="s">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>305</v>
@@ -9041,28 +9045,28 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C208" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E208" s="1">
+      <c r="F208" s="1">
         <v>1994</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="G208" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H208" s="1" t="s">
-        <v>422</v>
+        <v>65</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>305</v>
@@ -9073,28 +9077,28 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C209" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E209" s="1">
+      <c r="F209" s="1">
         <v>1987</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H209" s="1" t="s">
-        <v>424</v>
+        <v>65</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>305</v>
@@ -9105,28 +9109,28 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C210" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E210" s="1">
+      <c r="F210" s="1">
         <v>1992</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H210" s="1" t="s">
-        <v>426</v>
+        <v>65</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>305</v>
@@ -9137,25 +9141,25 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="1">
+      <c r="F211" s="1">
         <v>2008</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>430</v>
@@ -9166,25 +9170,25 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E212" s="1">
+      <c r="F212" s="1">
         <v>2010</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="H212" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>430</v>
@@ -9195,25 +9199,25 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E213" s="1">
+      <c r="F213" s="1">
         <v>2009</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="G213" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="H213" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>430</v>
@@ -9224,22 +9228,22 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="H214" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>430</v>
@@ -9250,22 +9254,22 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="G215" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>430</v>
@@ -9276,25 +9280,25 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E216" s="1">
+      <c r="F216" s="1">
         <v>2010</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="H216" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>430</v>
@@ -9305,22 +9309,22 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>430</v>
@@ -9331,25 +9335,25 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E218" s="1">
+      <c r="F218" s="1">
         <v>2009</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>430</v>
@@ -9360,22 +9364,22 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="G219" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="H219" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>430</v>
@@ -9386,25 +9390,25 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E220" s="1">
+      <c r="F220" s="1">
         <v>2008</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="G220" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>430</v>
@@ -9415,25 +9419,25 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E221" s="1">
+      <c r="F221" s="1">
         <v>2009</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>430</v>
@@ -9444,25 +9448,25 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E222" s="1">
+      <c r="F222" s="1">
         <v>2008</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="G222" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="H222" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>430</v>
@@ -9473,25 +9477,25 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E223" s="1">
+      <c r="F223" s="1">
         <v>1984</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="G223" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H223" s="1" t="s">
-        <v>449</v>
+        <v>65</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>430</v>
@@ -9502,25 +9506,25 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E224" s="1">
+      <c r="F224" s="1">
         <v>1992</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H224" s="1" t="s">
-        <v>453</v>
+        <v>65</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>430</v>
@@ -9531,25 +9535,25 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E225" s="1">
+      <c r="F225" s="1">
         <v>1985</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H225" s="1" t="s">
-        <v>456</v>
+        <v>65</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>430</v>
@@ -9560,25 +9564,25 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E226" s="1">
+      <c r="F226" s="1">
         <v>1990</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="G226" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G226" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H226" s="1" t="s">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>430</v>
@@ -9589,25 +9593,25 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E227" s="1">
+      <c r="F227" s="1">
         <v>1986</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="G227" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H227" s="1" t="s">
-        <v>462</v>
+        <v>65</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>430</v>
@@ -9618,25 +9622,25 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E228" s="1">
+      <c r="F228" s="1">
         <v>1991</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H228" s="1" t="s">
-        <v>465</v>
+        <v>65</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>430</v>
@@ -9647,25 +9651,25 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E229" s="1">
+      <c r="F229" s="1">
         <v>1987</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G229" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H229" s="1" t="s">
-        <v>467</v>
+        <v>65</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>430</v>
@@ -9676,25 +9680,25 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E230" s="1">
+      <c r="F230" s="1">
         <v>1990</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="G230" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G230" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H230" s="1" t="s">
-        <v>470</v>
+        <v>65</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>430</v>
@@ -9705,25 +9709,25 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E231" s="1">
+      <c r="F231" s="1">
         <v>1986</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="G231" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G231" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H231" s="1" t="s">
-        <v>474</v>
+        <v>65</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>430</v>
@@ -9734,25 +9738,25 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E232" s="1">
+      <c r="F232" s="1">
         <v>1988</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="G232" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H232" s="1" t="s">
-        <v>477</v>
+        <v>65</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>430</v>
@@ -9763,25 +9767,25 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E233" s="1">
+      <c r="F233" s="1">
         <v>1986</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="G233" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H233" s="1" t="s">
-        <v>479</v>
+        <v>65</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>430</v>
@@ -9792,25 +9796,25 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E234" s="1">
+      <c r="F234" s="1">
         <v>1985</v>
       </c>
-      <c r="F234" s="1" t="s">
+      <c r="G234" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H234" s="1" t="s">
-        <v>482</v>
+        <v>65</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>430</v>
@@ -9821,25 +9825,25 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E235" s="1">
+      <c r="F235" s="1">
         <v>1989</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G235" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H235" s="1" t="s">
-        <v>484</v>
+        <v>65</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>430</v>
@@ -9849,22 +9853,22 @@
       </c>
     </row>
     <row r="236" spans="1:10">
-      <c r="A236" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E236" s="1">
+      <c r="F236" s="1">
         <v>2003</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="G236" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="H236" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I236" s="1" t="s">
@@ -9875,22 +9879,22 @@
       </c>
     </row>
     <row r="237" spans="1:10">
-      <c r="A237" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="E237" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E237" s="1">
+      <c r="F237" s="1">
         <v>2004</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="G237" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I237" s="1" t="s">
@@ -9902,25 +9906,25 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E238" s="1">
+      <c r="F238" s="1">
         <v>2005</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G238" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H238" s="1" t="s">
-        <v>489</v>
+        <v>65</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>430</v>
@@ -9931,25 +9935,25 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E239" s="1">
+      <c r="F239" s="1">
         <v>1994</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="G239" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G239" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H239" s="1" t="s">
-        <v>491</v>
+        <v>65</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>430</v>
@@ -9960,25 +9964,25 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E240" s="1">
+      <c r="F240" s="1">
         <v>2004</v>
       </c>
-      <c r="F240" s="1" t="s">
+      <c r="G240" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G240" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H240" s="1" t="s">
-        <v>493</v>
+        <v>65</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>430</v>
@@ -9989,25 +9993,25 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E241" s="1">
+      <c r="F241" s="1">
         <v>1999</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="G241" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G241" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H241" s="1" t="s">
-        <v>496</v>
+        <v>65</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>430</v>
@@ -10018,25 +10022,25 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E242" s="1">
+      <c r="F242" s="1">
         <v>1987</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G242" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H242" s="1" t="s">
-        <v>499</v>
+        <v>65</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>430</v>
@@ -10047,25 +10051,25 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E243" s="1">
+      <c r="F243" s="1">
         <v>1985</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H243" s="1" t="s">
-        <v>502</v>
+        <v>65</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>430</v>
@@ -10079,22 +10083,22 @@
         <v>503</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F244" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G244" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H244" s="1" t="s">
-        <v>503</v>
+        <v>65</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>430</v>
@@ -10108,22 +10112,22 @@
         <v>506</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F245" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G245" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H245" s="1" t="s">
-        <v>506</v>
+        <v>65</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>430</v>
@@ -10137,22 +10141,22 @@
         <v>508</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F246" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G246" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G246" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H246" s="1" t="s">
-        <v>508</v>
+        <v>65</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>430</v>
@@ -10166,22 +10170,22 @@
         <v>509</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F247" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G247" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H247" s="1" t="s">
-        <v>509</v>
+        <v>65</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>430</v>
@@ -10195,19 +10199,19 @@
         <v>512</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G248" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>512</v>
+        <v>65</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>430</v>
@@ -10221,22 +10225,22 @@
         <v>513</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F249" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H249" s="1" t="s">
-        <v>513</v>
+        <v>65</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>430</v>
@@ -10250,22 +10254,22 @@
         <v>515</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F250" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G250" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H250" s="1" t="s">
-        <v>515</v>
+        <v>65</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>430</v>
@@ -10279,22 +10283,22 @@
         <v>517</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F251" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G251" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H251" s="1" t="s">
-        <v>517</v>
+        <v>65</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>430</v>
@@ -10308,22 +10312,22 @@
         <v>518</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F252" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G252" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H252" s="1" t="s">
-        <v>518</v>
+        <v>65</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>430</v>
@@ -10337,22 +10341,22 @@
         <v>519</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F253" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G253" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H253" s="1" t="s">
-        <v>519</v>
+        <v>65</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>430</v>
@@ -10363,28 +10367,28 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C254" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E254" s="1">
+      <c r="F254" s="1">
         <v>1981</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="G254" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G254" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H254" s="1" t="s">
-        <v>522</v>
+        <v>65</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>430</v>
@@ -10395,28 +10399,28 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C255" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E255" s="1">
+      <c r="F255" s="1">
         <v>1982</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="G255" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G255" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H255" s="1" t="s">
-        <v>524</v>
+        <v>65</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>430</v>
@@ -10430,25 +10434,25 @@
         <v>525</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>227</v>
+        <v>525</v>
       </c>
       <c r="C256" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E256" s="1">
+      <c r="F256" s="1">
         <v>1994</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G256" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H256" s="1" t="s">
-        <v>525</v>
+        <v>65</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>430</v>
@@ -10459,28 +10463,28 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C257" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E257" s="1">
+      <c r="F257" s="1">
         <v>2010</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="G257" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="H257" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>430</v>
@@ -10491,28 +10495,28 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C258" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E258" s="1">
+      <c r="F258" s="1">
         <v>2010</v>
       </c>
-      <c r="F258" s="1" t="s">
+      <c r="G258" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="H258" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>430</v>
@@ -10523,28 +10527,28 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C259" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E259" s="1">
+      <c r="F259" s="1">
         <v>1991</v>
       </c>
-      <c r="F259" s="1" t="s">
+      <c r="G259" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="H259" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>430</v>
@@ -10555,28 +10559,28 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C260" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E260" s="1">
+      <c r="F260" s="1">
         <v>1994</v>
       </c>
-      <c r="F260" s="1" t="s">
+      <c r="G260" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="H260" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>430</v>
@@ -10587,28 +10591,28 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C261" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E261" s="1">
+      <c r="F261" s="1">
         <v>2010</v>
       </c>
-      <c r="F261" s="1" t="s">
+      <c r="G261" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="H261" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>430</v>
@@ -10619,28 +10623,28 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C262" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E262" s="1">
+      <c r="F262" s="1">
         <v>2010</v>
       </c>
-      <c r="F262" s="1" t="s">
+      <c r="G262" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="H262" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>430</v>
@@ -10651,28 +10655,28 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C263" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E263" s="1">
+      <c r="F263" s="1">
         <v>2010</v>
       </c>
-      <c r="F263" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="H263" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>430</v>
@@ -10683,28 +10687,28 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C264" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E264" s="1">
+      <c r="F264" s="1">
         <v>2010</v>
       </c>
-      <c r="F264" s="1" t="s">
+      <c r="G264" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G264" s="1" t="s">
+      <c r="H264" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>430</v>
@@ -10715,28 +10719,28 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C265" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E265" s="1">
+      <c r="F265" s="1">
         <v>2009</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="G265" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G265" s="1" t="s">
+      <c r="H265" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>430</v>
@@ -10747,28 +10751,28 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C266" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E266" s="1">
+      <c r="F266" s="1">
         <v>2008</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="G266" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="H266" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>430</v>
@@ -10779,28 +10783,28 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C267" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E267" s="1">
+      <c r="F267" s="1">
         <v>1993</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="G267" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G267" s="1" t="s">
+      <c r="H267" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>430</v>
@@ -10811,28 +10815,28 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C268" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E268" s="1">
+      <c r="F268" s="1">
         <v>2010</v>
       </c>
-      <c r="F268" s="1" t="s">
+      <c r="G268" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G268" s="1" t="s">
+      <c r="H268" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>430</v>
@@ -10843,28 +10847,28 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C269" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E269" s="1">
+      <c r="F269" s="1">
         <v>2011</v>
       </c>
-      <c r="F269" s="1" t="s">
+      <c r="G269" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G269" s="1" t="s">
+      <c r="H269" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>430</v>
@@ -10875,28 +10879,28 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C270" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E270" s="1">
+      <c r="F270" s="1">
         <v>2011</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="G270" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G270" s="1" t="s">
+      <c r="H270" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>430</v>
@@ -10907,28 +10911,28 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C271" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E271" s="1">
+      <c r="F271" s="1">
         <v>2011</v>
       </c>
-      <c r="F271" s="1" t="s">
+      <c r="G271" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G271" s="1" t="s">
+      <c r="H271" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>430</v>
@@ -10939,28 +10943,28 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C272" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E272" s="1">
+      <c r="F272" s="1">
         <v>2011</v>
       </c>
-      <c r="F272" s="1" t="s">
+      <c r="G272" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="H272" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>430</v>

--- a/tabular/Kuzmin-data.xlsx
+++ b/tabular/Kuzmin-data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NULL accessions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -2219,8 +2220,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2288,7 +2295,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2316,6 +2323,9 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2343,6 +2353,9 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2672,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J272"/>
+  <dimension ref="A1:J270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9853,17 +9866,20 @@
       </c>
     </row>
     <row r="236" spans="1:10">
+      <c r="A236" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="B236" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F236" s="1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>172</v>
@@ -9879,8 +9895,11 @@
       </c>
     </row>
     <row r="237" spans="1:10">
+      <c r="A237" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="B237" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>82</v>
@@ -9889,10 +9908,10 @@
         <v>80</v>
       </c>
       <c r="F237" s="1">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>65</v>
@@ -9906,22 +9925,22 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F238" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>65</v>
@@ -9935,19 +9954,19 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F239" s="1">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>88</v>
@@ -9964,22 +9983,22 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>162</v>
+        <v>498</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F240" s="1">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>65</v>
@@ -9988,27 +10007,27 @@
         <v>430</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F241" s="1">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>65</v>
@@ -10017,27 +10036,27 @@
         <v>430</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>498</v>
+        <v>179</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F242" s="1">
-        <v>1987</v>
+        <v>504</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>458</v>
+        <v>225</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>65</v>
@@ -10046,27 +10065,27 @@
         <v>430</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>501</v>
+        <v>179</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F243" s="1">
-        <v>1985</v>
+        <v>507</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>458</v>
+        <v>196</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>65</v>
@@ -10075,27 +10094,27 @@
         <v>430</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>65</v>
@@ -10109,10 +10128,10 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>179</v>
@@ -10124,7 +10143,7 @@
         <v>65</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>196</v>
+        <v>510</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>65</v>
@@ -10133,15 +10152,15 @@
         <v>430</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>179</v>
@@ -10152,9 +10171,6 @@
       <c r="F246" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G246" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H246" s="1" t="s">
         <v>65</v>
       </c>
@@ -10162,21 +10178,21 @@
         <v>430</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>65</v>
@@ -10196,19 +10212,22 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>65</v>
@@ -10222,16 +10241,16 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>65</v>
@@ -10251,10 +10270,10 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>179</v>
@@ -10280,16 +10299,16 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>65</v>
@@ -10309,22 +10328,25 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>179</v>
+        <v>227</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>65</v>
+        <v>385</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1981</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>510</v>
+        <v>311</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>65</v>
@@ -10333,27 +10355,30 @@
         <v>430</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>179</v>
+        <v>227</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>65</v>
+        <v>385</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1982</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>510</v>
+        <v>311</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>65</v>
@@ -10362,30 +10387,30 @@
         <v>430</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>385</v>
+        <v>87</v>
       </c>
       <c r="F254" s="1">
-        <v>1981</v>
+        <v>1994</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>65</v>
@@ -10394,94 +10419,94 @@
         <v>430</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="1" t="s">
-        <v>524</v>
+        <v>689</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>385</v>
+        <v>17</v>
       </c>
       <c r="F255" s="1">
-        <v>1982</v>
+        <v>2010</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>430</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>450</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="1" t="s">
-        <v>525</v>
+        <v>690</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>87</v>
+        <v>385</v>
       </c>
       <c r="F256" s="1">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>430</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>526</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="F257" s="1">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>8</v>
@@ -10495,25 +10520,25 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>385</v>
+        <v>195</v>
       </c>
       <c r="F258" s="1">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>8</v>
@@ -10527,25 +10552,25 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="F259" s="1">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>311</v>
+        <v>202</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>8</v>
@@ -10559,25 +10584,25 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F260" s="1">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>8</v>
@@ -10591,10 +10616,10 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>227</v>
@@ -10603,13 +10628,13 @@
         <v>578</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="F261" s="1">
         <v>2010</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>8</v>
@@ -10623,25 +10648,25 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="1" t="s">
-        <v>694</v>
+        <v>535</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F262" s="1">
         <v>2010</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>8</v>
@@ -10655,25 +10680,25 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F263" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>8</v>
@@ -10687,25 +10712,25 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="1" t="s">
-        <v>535</v>
+        <v>697</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F264" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>8</v>
@@ -10719,25 +10744,25 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F265" s="1">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>8</v>
@@ -10751,25 +10776,25 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F266" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>8</v>
@@ -10783,25 +10808,25 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="F267" s="1">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>8</v>
@@ -10815,25 +10840,25 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="F268" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>8</v>
@@ -10847,25 +10872,25 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F269" s="1">
         <v>2011</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>311</v>
+        <v>202</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>8</v>
@@ -10879,25 +10904,25 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>20</v>
+        <v>544</v>
       </c>
       <c r="F270" s="1">
         <v>2011</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>8</v>
@@ -10906,70 +10931,6 @@
         <v>430</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
-      <c r="A271" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F271" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
-      <c r="A272" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F272" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J272" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10982,4 +10943,80 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tabular/Kuzmin-data.xlsx
+++ b/tabular/Kuzmin-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="0" windowWidth="23560" windowHeight="23980" tabRatio="500"/>
+    <workbookView xWindow="18360" yWindow="3040" windowWidth="23560" windowHeight="23980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Kuzmin-data.csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="727">
   <si>
     <t>Year</t>
   </si>
@@ -2180,6 +2180,27 @@
   </si>
   <si>
     <t>Bat - TB</t>
+  </si>
+  <si>
+    <t>BR-NL2</t>
+  </si>
+  <si>
+    <t>BR-EF4</t>
+  </si>
+  <si>
+    <t>BR-EF3</t>
+  </si>
+  <si>
+    <t>BR-EF1</t>
+  </si>
+  <si>
+    <t>9135OMA</t>
+  </si>
+  <si>
+    <t>8706ARS</t>
+  </si>
+  <si>
+    <t>8702IRA</t>
   </si>
 </sst>
 </file>
@@ -2269,8 +2290,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="225">
+  <cellStyleXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2515,7 +2562,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="225">
+  <cellStyles count="251">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2628,6 +2675,19 @@
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2740,6 +2800,19 @@
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3071,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D53" sqref="A1:J270"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3296,7 +3369,9 @@
       <c r="A10" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>723</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>166</v>
       </c>
@@ -3317,7 +3392,9 @@
       <c r="A11" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>722</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>166</v>
       </c>
@@ -3338,7 +3415,9 @@
       <c r="A12" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>721</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>166</v>
       </c>
@@ -3359,7 +3438,9 @@
       <c r="A13" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>720</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>166</v>
       </c>
@@ -4273,7 +4354,7 @@
         <v>1995</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>45</v>
@@ -10529,7 +10610,9 @@
       <c r="A260" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B260"/>
+      <c r="B260" t="s">
+        <v>724</v>
+      </c>
       <c r="C260" s="1" t="s">
         <v>122</v>
       </c>
@@ -10553,7 +10636,9 @@
       <c r="A261" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B261"/>
+      <c r="B261" t="s">
+        <v>725</v>
+      </c>
       <c r="C261" s="1" t="s">
         <v>119</v>
       </c>
@@ -10577,7 +10662,9 @@
       <c r="A262" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B262"/>
+      <c r="B262" t="s">
+        <v>726</v>
+      </c>
       <c r="C262" s="1" t="s">
         <v>125</v>
       </c>
